--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1056.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1056.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.873773686488128</v>
+        <v>1.14208722114563</v>
       </c>
       <c r="B1">
-        <v>2.312347068549955</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.721426243521573</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.613598207343015</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.513743552999409</v>
+        <v>1.035663843154907</v>
       </c>
     </row>
   </sheetData>
